--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>setsGanados</t>
+          <t>sets_ganados</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>setsPerdidos</t>
+          <t>sets_perdidos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DifJuegos</t>
+          <t>partidos_ganados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>partidosGanados</t>
+          <t>partidos_perdidos</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>enfrentamientos</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>puntos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>dineroGenerado</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>mediaEspectadoresPorEquipo</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>entradasVendidasPorEquipo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>enfrentamientosJugados</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pais</t>
         </is>
@@ -520,32 +525,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[2, 4, 3, 10, 5, 7, 6]</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
         <v>300</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>100</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[1, 2, 3]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>España</t>
         </is>
@@ -571,32 +579,35 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[1, 8, 10, 7, 4, 6, 9]</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>200</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>800</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>80</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[5, 6, 7]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>EEUU</t>
         </is>
@@ -622,32 +633,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[4, 9, 1, 6, 7, 5, 10]</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
         <v>250</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>900</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>90</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[1, 5, 9]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -673,32 +687,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
         <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-3</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[3, 1, 5, 8, 2, 10, 7]</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
         <v>150</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>700</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[2, 6, 10]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>URS</t>
         </is>
@@ -724,32 +741,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[6, 10, 4, 9, 1, 3, 8]</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
         <v>300</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1000</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>100</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[3, 7, 8]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -775,32 +795,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[5, 7, 8, 3, 9, 2, 1]</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
         <v>200</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>800</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>80</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[4, 9, 5]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
@@ -826,32 +849,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[8, 6, 9, 2, 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
         <v>250</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>900</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>90</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[6, 7, 8]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t xml:space="preserve">Republica Democratica del Congo </t>
         </is>
@@ -877,32 +903,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[7, 2, 6, 4, 10, 9, 5]</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
         <v>300</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1000</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>100</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[1, 4, 10]</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>España</t>
         </is>
@@ -928,32 +957,35 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[10, 3, 7, 5, 6, 8, 2]</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
         <v>400</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1200</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>120</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[2, 3, 9]</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -979,32 +1011,35 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[9, 5, 2, 1, 8, 4, 3]</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>200</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>800</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>80</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[4, 5, 6]</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>

--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -545,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M2" t="n">
         <v>100</v>
@@ -599,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>405</v>
       </c>
       <c r="M3" t="n">
         <v>80</v>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L4" t="n">
         <v>900</v>
@@ -707,10 +707,10 @@
         <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="L5" t="n">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -761,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M6" t="n">
         <v>100</v>
@@ -815,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="M7" t="n">
         <v>80</v>
@@ -869,10 +869,10 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="M8" t="n">
         <v>90</v>
@@ -923,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M9" t="n">
         <v>100</v>
@@ -977,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="L10" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="M10" t="n">
         <v>120</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L11" t="n">
         <v>800</v>

--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ulises</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>puntos_por_jornada</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>dineroGenerado</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mediaEspectadoresPorEquipo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>entradasVendidasPorEquipo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pais</t>
         </is>
@@ -544,16 +549,21 @@
       <c r="J2" t="n">
         <v>8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0, 2, 2, 4, 4, 4, 6, 8]</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>650</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>550</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>España</t>
         </is>
@@ -598,16 +608,21 @@
       <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 2, 4, 4, 6, 8]</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>700</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>405</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>80</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>EEUU</t>
         </is>
@@ -652,16 +667,21 @@
       <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[0, 0, 2, 2, 2, 4, 4, 6]</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>600</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>900</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>90</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -706,16 +726,21 @@
       <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[0, 2, 4, 6, 6, 8, 10, 12]</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>1200</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>830</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>URS</t>
         </is>
@@ -760,16 +785,21 @@
       <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[0, 0, 2, 2, 2, 4, 6, 6]</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>600</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>450</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>100</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -814,16 +844,21 @@
       <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[0, 2, 4, 6, 8, 10, 10, 10]</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>950</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>670</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>80</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
@@ -868,16 +903,21 @@
       <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 2, 2, 2, 2, 4]</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>500</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>880</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>90</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t xml:space="preserve">Republica Democratica del Congo </t>
         </is>
@@ -922,16 +962,21 @@
       <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[0, 2, 4, 4, 6, 6, 6, 6]</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>600</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>550</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>100</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>España</t>
         </is>
@@ -976,16 +1021,21 @@
       <c r="J10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[0, 2, 2, 2, 4, 4, 6, 6]</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
         <v>1150</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>950</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>120</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -1030,16 +1080,21 @@
       <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 2, 4, 4, 4]</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
         <v>600</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>800</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>80</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>

--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Republica Democratica del Congo </t>
+          <t xml:space="preserve">R.D. Congo </t>
         </is>
       </c>
     </row>

--- a/Mates Discretas/pandas/padelWorldCupDicc.xlsx
+++ b/Mates Discretas/pandas/padelWorldCupDicc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
